--- a/5-Testing/Test Case Report.xlsx
+++ b/5-Testing/Test Case Report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohip\Documents\GitHub\Foodies\5-Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799300D5-A2E3-45FB-998C-7A49FCF8E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="408">
   <si>
     <t>ID</t>
   </si>
@@ -1332,12 +1338,220 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>TC-MyACC-1</t>
+  </si>
+  <si>
+    <t>Verify ID text box contain the correct value</t>
+  </si>
+  <si>
+    <t>1- go to home page 
+2-login with a vlaid account
+3-Enter user id ""customer@customer.com""
+4-Enter password""P@ssw0rd"".
+5-Click login." 
+6-click My Account</t>
+  </si>
+  <si>
+    <t>1- click on ID text box</t>
+  </si>
+  <si>
+    <t>TC-MyACC-2</t>
+  </si>
+  <si>
+    <t>Verify ID text box is be dimmed</t>
+  </si>
+  <si>
+    <t>1- click on Username text box</t>
+  </si>
+  <si>
+    <t>TC-MyACC-3</t>
+  </si>
+  <si>
+    <t>Verify Edit ID button must be clickable</t>
+  </si>
+  <si>
+    <t>1- click on edit Id button</t>
+  </si>
+  <si>
+    <t>TC-MyACC-4</t>
+  </si>
+  <si>
+    <t>verify that user ID first character cannot have space</t>
+  </si>
+  <si>
+    <t>TC-MyACC-5</t>
+  </si>
+  <si>
+    <t>verify that user ID with Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>TC-MyACC-6</t>
+  </si>
+  <si>
+    <t>verify that user ID contain at least 8 alphanumeric</t>
+  </si>
+  <si>
+    <t>TC-MyACC-7</t>
+  </si>
+  <si>
+    <t>Verify Email text box contain the correct value</t>
+  </si>
+  <si>
+    <t>1- click on Email text box</t>
+  </si>
+  <si>
+    <t>TC-MyACC-8</t>
+  </si>
+  <si>
+    <t>Verify Email text box is dimmed</t>
+  </si>
+  <si>
+    <t>TC-MyACC-9</t>
+  </si>
+  <si>
+    <t>Verify Edit email button must be clickable</t>
+  </si>
+  <si>
+    <t>1- click on edit email button</t>
+  </si>
+  <si>
+    <t>TC-MyACC-10</t>
+  </si>
+  <si>
+    <t>Verify that email field DON'T accept valid formate</t>
+  </si>
+  <si>
+    <t>1- click on Email text box
+2- enter "sd1"
+3-click Save changes buttons</t>
+  </si>
+  <si>
+    <t>TC-MyACC-11</t>
+  </si>
+  <si>
+    <t>Verify that email field is in correct formate</t>
+  </si>
+  <si>
+    <t>1- click on Email text box
+2- enter "koko@koko.com"
+3-click Save changes buttons</t>
+  </si>
+  <si>
+    <t>TC-MyACC-12</t>
+  </si>
+  <si>
+    <t>Verify phone text box contain the correct value</t>
+  </si>
+  <si>
+    <t>1- click on phone text box</t>
+  </si>
+  <si>
+    <t>TC-MyACC-13</t>
+  </si>
+  <si>
+    <t>Verify phone text box is dimmed</t>
+  </si>
+  <si>
+    <t>TC-MyACC-14</t>
+  </si>
+  <si>
+    <t>Verify Edit phone button must be clickable</t>
+  </si>
+  <si>
+    <t>1- click on edit phone button</t>
+  </si>
+  <si>
+    <t>TC-MyACC-15</t>
+  </si>
+  <si>
+    <t>verify that Telephone Number with Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>TC-MyACC-16</t>
+  </si>
+  <si>
+    <t>verify that Telephone Number with characters are not allowed</t>
+  </si>
+  <si>
+    <t>TC-MyACC-17</t>
+  </si>
+  <si>
+    <t>TC-HP-1</t>
+  </si>
+  <si>
+    <t>Verifiy that the" Select your Area" dropdown is clickable</t>
+  </si>
+  <si>
+    <t>1- go to home page 
+2-login with a vlaid account
+customer@customer.com:P@ssw0rd</t>
+  </si>
+  <si>
+    <t>1-click on the "Select your Area" drop down menu</t>
+  </si>
+  <si>
+    <t>SOHAIB</t>
+  </si>
+  <si>
+    <t>the dorp down list is opend and the resuls are displayed</t>
+  </si>
+  <si>
+    <t>TC-HP-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifiy if the results "Select your Area" choice are sorted corectly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-click on the "Select your Area" drop down menu
+2- click in any choise
+</t>
+  </si>
+  <si>
+    <t>the drop down menu closed and the chossen option is written in the box</t>
+  </si>
+  <si>
+    <t>TC-HP-3</t>
+  </si>
+  <si>
+    <t>Verifiy that the "Select your neighbourhood" dropdown is clickable</t>
+  </si>
+  <si>
+    <t>1-click on the "Select your neighbourhood" drop down menu</t>
+  </si>
+  <si>
+    <t>TC-HP-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifiy if the results "Select your neighbourhood" choice are sorted corectly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-click on the "Select your neighbourhood" drop down menu
+2- click in any choise
+</t>
+  </si>
+  <si>
+    <t>TC-HP-5</t>
+  </si>
+  <si>
+    <t>Verifiy that the" GO!" button is clickable</t>
+  </si>
+  <si>
+    <t>1-click on the "Select your Area" drop down menu and chose the area
+2-click on the "Select your neighbourhood" drop down menu
+3- click on "GO!" button</t>
+  </si>
+  <si>
+    <t>the page should redirected to a new page conatin the regitered resurants in the choosen area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1500,8 +1714,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1571,6 +1805,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,7 +2108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2017,7 +2257,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2052,9 +2291,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2064,17 +2300,23 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2085,7 +2327,34 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2302,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2366,7 +2635,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="54" customFormat="1" ht="158.4">
+    <row r="2" spans="1:25" ht="158.4">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2395,7 +2664,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="3" spans="1:25" ht="144">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2411,20 +2680,20 @@
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="55" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="54" customFormat="1" ht="158.4">
+    <row r="4" spans="1:25" ht="158.4">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -2440,20 +2709,20 @@
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="55" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="5" spans="1:25" ht="144">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -2469,20 +2738,20 @@
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="55" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="6" spans="1:25" ht="144">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2498,20 +2767,20 @@
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="55" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="7" spans="1:25" ht="144">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -2527,20 +2796,20 @@
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="55" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="8" spans="1:25" ht="144">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -2556,20 +2825,20 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="55" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="9" spans="1:25" ht="144">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -2585,20 +2854,20 @@
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="55" t="s">
         <v>257</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="10" spans="1:25" ht="144">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -2614,7 +2883,7 @@
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>137</v>
       </c>
       <c r="G10" s="51" t="s">
@@ -2627,7 +2896,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="11" spans="1:25" ht="144">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -2643,20 +2912,20 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="56" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="54" customFormat="1" ht="129.6">
+    <row r="12" spans="1:25" ht="129.6">
       <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
@@ -2672,20 +2941,20 @@
       <c r="E12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="55" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="13" spans="1:25" ht="144">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -2701,20 +2970,20 @@
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="55" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="14" spans="1:25" ht="144">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -2730,7 +2999,7 @@
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="54" t="s">
         <v>137</v>
       </c>
       <c r="G14" s="51" t="s">
@@ -2743,7 +3012,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="54" customFormat="1" ht="144">
+    <row r="15" spans="1:25" ht="144">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -2759,20 +3028,20 @@
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="54" customFormat="1" ht="86.4">
+    <row r="16" spans="1:25" ht="86.4">
       <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
@@ -2788,7 +3057,7 @@
       <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="54" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="51" t="s">
@@ -2801,7 +3070,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="54" customFormat="1" ht="129.6">
+    <row r="17" spans="1:9" ht="129.6">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
@@ -2817,20 +3086,20 @@
       <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="55" t="s">
         <v>268</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="54" customFormat="1" ht="144">
+    <row r="18" spans="1:9" ht="144">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
@@ -2846,20 +3115,20 @@
       <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="55" t="s">
         <v>271</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="54" customFormat="1" ht="158.4">
+    <row r="19" spans="1:9" ht="158.4">
       <c r="A19" s="6" t="s">
         <v>58</v>
       </c>
@@ -2875,20 +3144,20 @@
       <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="55" t="s">
         <v>274</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="54" customFormat="1" ht="144">
+    <row r="20" spans="1:9" ht="144">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
@@ -2904,20 +3173,20 @@
       <c r="E20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="55" t="s">
         <v>277</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="54" customFormat="1" ht="129.6">
+    <row r="21" spans="1:9" ht="129.6">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
@@ -2933,20 +3202,20 @@
       <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="55" t="s">
         <v>62</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="54" customFormat="1" ht="144">
+    <row r="22" spans="1:9" ht="144">
       <c r="A22" s="6" t="s">
         <v>63</v>
       </c>
@@ -2962,20 +3231,20 @@
       <c r="E22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="55" t="s">
         <v>65</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="54" customFormat="1" ht="158.4">
+    <row r="23" spans="1:9" ht="158.4">
       <c r="A23" s="6" t="s">
         <v>66</v>
       </c>
@@ -2991,20 +3260,20 @@
       <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="55" t="s">
         <v>68</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="54" customFormat="1" ht="158.4">
+    <row r="24" spans="1:9" ht="158.4">
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
@@ -3020,13 +3289,13 @@
       <c r="E24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="56" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="25" t="s">
@@ -3050,7 +3319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3072,7 +3341,7 @@
     <col min="8" max="8" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3142,7 +3411,7 @@
       <c r="H2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J2" s="24"/>
@@ -3187,7 +3456,7 @@
       <c r="H3" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J3" s="24"/>
@@ -3232,7 +3501,7 @@
       <c r="H4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J4" s="24"/>
@@ -3277,7 +3546,7 @@
       <c r="H5" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J5" s="24"/>
@@ -3322,7 +3591,7 @@
       <c r="H6" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J6" s="24"/>
@@ -3367,7 +3636,7 @@
       <c r="H7" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J7" s="24"/>
@@ -3412,7 +3681,7 @@
       <c r="H8" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J8" s="24"/>
@@ -3457,7 +3726,7 @@
       <c r="H9" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J9" s="24"/>
@@ -3502,7 +3771,7 @@
       <c r="H10" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J10" s="24"/>
@@ -3522,7 +3791,7 @@
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" ht="13.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3549,7 +3818,7 @@
       <c r="X11" s="24"/>
       <c r="Y11" s="24"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" ht="13.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3576,7 +3845,7 @@
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" ht="13.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3603,7 +3872,7 @@
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" ht="13.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3630,7 +3899,7 @@
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" ht="13.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3657,7 +3926,7 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" ht="13.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3684,7 +3953,7 @@
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" ht="13.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3711,7 +3980,7 @@
       <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" ht="13.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3738,7 +4007,7 @@
       <c r="X18" s="24"/>
       <c r="Y18" s="24"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" ht="13.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3765,7 +4034,7 @@
       <c r="X19" s="24"/>
       <c r="Y19" s="24"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" ht="13.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3792,7 +4061,7 @@
       <c r="X20" s="24"/>
       <c r="Y20" s="24"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" ht="13.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3819,7 +4088,7 @@
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" ht="13.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3846,7 +4115,7 @@
       <c r="X22" s="24"/>
       <c r="Y22" s="24"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" ht="13.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3873,7 +4142,7 @@
       <c r="X23" s="24"/>
       <c r="Y23" s="24"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" ht="13.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3900,7 +4169,7 @@
       <c r="X24" s="24"/>
       <c r="Y24" s="24"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" ht="13.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3927,7 +4196,7 @@
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="13.2">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -3954,7 +4223,7 @@
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" ht="13.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -3981,7 +4250,7 @@
       <c r="X27" s="24"/>
       <c r="Y27" s="24"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" ht="13.2">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -4008,7 +4277,7 @@
       <c r="X28" s="24"/>
       <c r="Y28" s="24"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" ht="13.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -4035,7 +4304,7 @@
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" ht="13.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -4062,7 +4331,7 @@
       <c r="X30" s="24"/>
       <c r="Y30" s="24"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" ht="13.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -30258,7 +30527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30347,7 +30616,7 @@
       <c r="H2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J2" s="24"/>
@@ -30392,7 +30661,7 @@
       <c r="H3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J3" s="24"/>
@@ -30437,7 +30706,7 @@
       <c r="H4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J4" s="24"/>
@@ -30482,7 +30751,7 @@
       <c r="H5" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="60" t="s">
         <v>246</v>
       </c>
       <c r="J5" s="24"/>
@@ -30728,7 +30997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31148,13 +31417,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -31553,7 +31822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31565,271 +31834,271 @@
     <col min="1" max="6" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="66" customFormat="1" ht="42.6" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:6" s="65" customFormat="1" ht="21.6" thickBot="1">
+      <c r="A1" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70">
+      <c r="D2" s="67"/>
+      <c r="E2" s="68">
         <v>23</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="68" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70">
+      <c r="D3" s="67"/>
+      <c r="E3" s="68">
         <v>10</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="68" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70">
+      <c r="D4" s="67"/>
+      <c r="E4" s="68">
         <v>6</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="68" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70">
+      <c r="D5" s="67"/>
+      <c r="E5" s="68">
         <v>2</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="68" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70">
+      <c r="D7" s="67"/>
+      <c r="E7" s="68">
         <v>9</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="68" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="68" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70">
+      <c r="D8" s="67"/>
+      <c r="E8" s="68">
         <v>4</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="68" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70">
+      <c r="D15" s="67"/>
+      <c r="E15" s="68">
         <v>4</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="68" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="68" t="s">
+      <c r="A16" s="73"/>
+      <c r="B16" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70">
+      <c r="D16" s="67"/>
+      <c r="E16" s="68">
         <v>2</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="68" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="68" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70">
+      <c r="D17" s="67"/>
+      <c r="E17" s="68">
         <v>2</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="68" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70">
+      <c r="D19" s="67"/>
+      <c r="E19" s="68">
         <v>6</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="68" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70">
+      <c r="D20" s="67"/>
+      <c r="E20" s="68">
         <v>5</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" ht="18" thickBot="1">
       <c r="A21" s="75" t="s">
@@ -31838,24 +32107,24 @@
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
       <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31920,7 +32189,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="54" customFormat="1" ht="52.8">
+    <row r="2" spans="1:25" ht="52.8">
       <c r="A2" s="13" t="s">
         <v>71</v>
       </c>
@@ -31933,10 +32202,10 @@
       <c r="D2" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -31949,7 +32218,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="54" customFormat="1" ht="52.8">
+    <row r="3" spans="1:25" ht="52.8">
       <c r="A3" s="13" t="s">
         <v>75</v>
       </c>
@@ -31962,10 +32231,10 @@
       <c r="D3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -31978,7 +32247,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="54" customFormat="1" ht="79.2">
+    <row r="4" spans="1:25" ht="79.2">
       <c r="A4" s="13" t="s">
         <v>79</v>
       </c>
@@ -31991,10 +32260,10 @@
       <c r="D4" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -32007,7 +32276,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="54" customFormat="1" ht="79.2">
+    <row r="5" spans="1:25" ht="79.2">
       <c r="A5" s="13" t="s">
         <v>81</v>
       </c>
@@ -32020,10 +32289,10 @@
       <c r="D5" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -32036,7 +32305,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="54" customFormat="1" ht="66">
+    <row r="6" spans="1:25" ht="66">
       <c r="A6" s="13" t="s">
         <v>83</v>
       </c>
@@ -32049,10 +32318,10 @@
       <c r="D6" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -32065,7 +32334,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="54" customFormat="1" ht="52.8">
+    <row r="7" spans="1:25" ht="52.8">
       <c r="A7" s="13" t="s">
         <v>85</v>
       </c>
@@ -32078,10 +32347,10 @@
       <c r="D7" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -32094,7 +32363,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="54" customFormat="1" ht="52.8">
+    <row r="8" spans="1:25" ht="52.8">
       <c r="A8" s="13" t="s">
         <v>87</v>
       </c>
@@ -32107,10 +32376,10 @@
       <c r="D8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -32123,7 +32392,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="54" customFormat="1" ht="79.2">
+    <row r="9" spans="1:25" ht="79.2">
       <c r="A9" s="13" t="s">
         <v>89</v>
       </c>
@@ -32136,10 +32405,10 @@
       <c r="D9" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -32152,7 +32421,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="54" customFormat="1" ht="79.2">
+    <row r="10" spans="1:25" ht="79.2">
       <c r="A10" s="13" t="s">
         <v>90</v>
       </c>
@@ -32165,10 +32434,10 @@
       <c r="D10" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -32181,7 +32450,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="54" customFormat="1" ht="66">
+    <row r="11" spans="1:25" ht="66">
       <c r="A11" s="13" t="s">
         <v>91</v>
       </c>
@@ -32194,10 +32463,10 @@
       <c r="D11" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="59" t="s">
         <v>137</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -41145,7 +41414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41211,14 +41480,14 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="54" customFormat="1" ht="145.19999999999999">
+    <row r="2" spans="1:25" ht="145.19999999999999">
       <c r="A2" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="51" t="s">
@@ -41256,14 +41525,14 @@
       <c r="X2" s="26"/>
       <c r="Y2" s="26"/>
     </row>
-    <row r="3" spans="1:25" s="54" customFormat="1" ht="52.8">
+    <row r="3" spans="1:25" ht="52.8">
       <c r="A3" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -41285,14 +41554,14 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="54" customFormat="1" ht="118.8">
+    <row r="4" spans="1:25" ht="118.8">
       <c r="A4" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="51" t="s">
@@ -41314,14 +41583,14 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="54" customFormat="1" ht="118.8">
+    <row r="5" spans="1:25" ht="118.8">
       <c r="A5" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="51" t="s">
@@ -41343,14 +41612,14 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="54" customFormat="1" ht="118.8">
+    <row r="6" spans="1:25" ht="118.8">
       <c r="A6" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="51" t="s">
@@ -41372,14 +41641,14 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="54" customFormat="1" ht="145.19999999999999">
+    <row r="7" spans="1:25" ht="145.19999999999999">
       <c r="A7" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -41605,7 +41874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41975,13 +42244,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -41992,7 +42263,7 @@
     <col min="6" max="6" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -42037,179 +42308,403 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+    <row r="2" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A2" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>346</v>
+      </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" ht="13.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+    <row r="3" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A3" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>350</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="13.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+    <row r="4" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A4" s="81" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>353</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:25" ht="13.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+    <row r="5" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A5" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>356</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:25" ht="13.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+    <row r="6" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A6" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>358</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:25" ht="13.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+    <row r="7" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A7" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>360</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:25" ht="13.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+    <row r="8" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A8" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>362</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:25" ht="13.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+    <row r="9" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A9" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>365</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="13.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+    <row r="10" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A10" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>367</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:25" ht="13.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+    <row r="11" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A11" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>370</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:25" ht="13.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+    <row r="12" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A12" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>373</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:25" ht="13.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+    <row r="13" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A13" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>376</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:25" ht="13.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+    <row r="14" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A14" s="81" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>379</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="13.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+    <row r="15" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A15" s="81" t="s">
+        <v>380</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>381</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="13.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+    <row r="16" spans="1:25" ht="115.8" thickBot="1">
+      <c r="A16" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>384</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="13.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+    <row r="17" spans="1:9" ht="115.8" thickBot="1">
+      <c r="A17" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>386</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
@@ -42307,13 +42802,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -42324,7 +42821,7 @@
     <col min="6" max="6" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -42369,60 +42866,130 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:25" ht="13.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:25" ht="13.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:25" ht="13.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:25" ht="13.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+    <row r="2" spans="1:25" s="86" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A2" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:25" s="86" customFormat="1" ht="93" thickBot="1">
+      <c r="A3" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:25" s="86" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A4" s="81" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:25" s="86" customFormat="1" ht="93" thickBot="1">
+      <c r="A5" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:25" s="86" customFormat="1" ht="130.19999999999999" thickBot="1">
+      <c r="A6" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:25" ht="13.2">
       <c r="A7" s="9"/>
@@ -42639,7 +43206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -43047,7 +43614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -43417,7 +43984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/5-Testing/Test Case Report.xlsx
+++ b/5-Testing/Test Case Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohip\Documents\GitHub\Foodies\5-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799300D5-A2E3-45FB-998C-7A49FCF8E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C02B5B-8BB7-418B-A8DD-B7DFA656DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="434">
   <si>
     <t>ID</t>
   </si>
@@ -1546,12 +1546,96 @@
   <si>
     <t>the page should redirected to a new page conatin the regitered resurants in the choosen area</t>
   </si>
+  <si>
+    <t>Verifiy that the Search Box is clickable</t>
+  </si>
+  <si>
+    <t>1-click on the "Search Box"</t>
+  </si>
+  <si>
+    <t>the Search Box is clickable and accept inputs</t>
+  </si>
+  <si>
+    <t>Verifiy that the Search Box in the exact place</t>
+  </si>
+  <si>
+    <t>1-look at the top right corner of the page</t>
+  </si>
+  <si>
+    <t>the Search Box should be at the top right corner</t>
+  </si>
+  <si>
+    <t>Verifiy that the Search Box is cleared by (X) BUTTON</t>
+  </si>
+  <si>
+    <t>1-click on the "Search Box"
+2- Enter any data
+3- click (X) button</t>
+  </si>
+  <si>
+    <t>the date in the Search Box should be cleared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifiy that the Search Box doesb't accept special carachter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-click on the "Search Box"
+2- Enter "@dcbhbc"
+</t>
+  </si>
+  <si>
+    <t>erorr massage should appear"no special character are allowed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-click on the "Search Box"
+2- Enter "mac"
+3- click search icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">system should show the restaurant written </t>
+  </si>
+  <si>
+    <t>Verifiy that the Search Box shows the right resaurant</t>
+  </si>
+  <si>
+    <t>Verifiy that the Search Box haned wrong data</t>
+  </si>
+  <si>
+    <t>erorr massage should appear"no results are found"</t>
+  </si>
+  <si>
+    <t>Verifiy that the Select Button is clickable</t>
+  </si>
+  <si>
+    <t>redirect user to the selected restaurant menu page</t>
+  </si>
+  <si>
+    <t>TC-HP-6</t>
+  </si>
+  <si>
+    <t>TC-HP-7</t>
+  </si>
+  <si>
+    <t>TC-HP-8</t>
+  </si>
+  <si>
+    <t>TC-HP-9</t>
+  </si>
+  <si>
+    <t>TC-HP-10</t>
+  </si>
+  <si>
+    <t>TC-HP-11</t>
+  </si>
+  <si>
+    <t>TC-HP-12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1730,6 +1814,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2108,7 +2205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2309,24 +2406,6 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2356,6 +2435,27 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31855,7 +31955,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="85" t="s">
         <v>311</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -31873,7 +31973,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="66" t="s">
         <v>315</v>
       </c>
@@ -31889,7 +31989,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A4" s="73"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="66" t="s">
         <v>318</v>
       </c>
@@ -31905,7 +32005,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A5" s="74"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="66" t="s">
         <v>321</v>
       </c>
@@ -31929,7 +32029,7 @@
       <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="85" t="s">
         <v>324</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -31947,7 +32047,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A8" s="73"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="66" t="s">
         <v>328</v>
       </c>
@@ -31971,7 +32071,7 @@
       <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="85" t="s">
         <v>331</v>
       </c>
       <c r="B10" s="66"/>
@@ -31981,7 +32081,7 @@
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A11" s="73"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
@@ -31989,7 +32089,7 @@
       <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A12" s="73"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
       <c r="D12" s="67"/>
@@ -31997,7 +32097,7 @@
       <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A13" s="74"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
       <c r="D13" s="67"/>
@@ -32013,7 +32113,7 @@
       <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="85" t="s">
         <v>332</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -32031,7 +32131,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A16" s="73"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="66" t="s">
         <v>336</v>
       </c>
@@ -32047,7 +32147,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A17" s="74"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="66" t="s">
         <v>338</v>
       </c>
@@ -32071,7 +32171,7 @@
       <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="85" t="s">
         <v>216</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -32087,7 +32187,7 @@
       <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A20" s="73"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="66" t="s">
         <v>342</v>
       </c>
@@ -32101,12 +32201,12 @@
       <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" ht="18" thickBot="1">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="82" t="s">
         <v>344</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
     </row>
@@ -42250,8 +42350,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -42309,400 +42409,400 @@
       <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="73" t="s">
         <v>346</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="76" t="s">
         <v>351</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="76" t="s">
         <v>350</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="78" t="s">
         <v>353</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="76" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="76" t="s">
         <v>356</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="76" t="s">
         <v>358</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="76" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="76" t="s">
         <v>360</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="76" t="s">
         <v>362</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="76" t="s">
         <v>365</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="76" t="s">
         <v>365</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="76" t="s">
         <v>368</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="78" t="s">
         <v>367</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="79" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="76" t="s">
         <v>371</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="79" t="s">
         <v>370</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="79" t="s">
         <v>373</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="79" t="s">
         <v>373</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="76" t="s">
         <v>376</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="76" t="s">
         <v>377</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="76" t="s">
         <v>376</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="76" t="s">
         <v>377</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="76" t="s">
         <v>379</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="78" t="s">
         <v>381</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="76" t="s">
         <v>384</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="115.8" thickBot="1">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="76" t="s">
         <v>386</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="76" t="s">
         <v>386</v>
       </c>
       <c r="H17" s="9"/>
@@ -42808,8 +42908,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -42866,205 +42966,303 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="86" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:25" s="80" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A2" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="73" t="s">
         <v>391</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="73" t="s">
         <v>393</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:25" s="86" customFormat="1" ht="93" thickBot="1">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:25" s="80" customFormat="1" ht="93" thickBot="1">
+      <c r="A3" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="76" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="81" t="s">
         <v>397</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:25" s="86" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:25" s="80" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A4" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="76" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="76" t="s">
         <v>393</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:25" s="86" customFormat="1" ht="93" thickBot="1">
-      <c r="A5" s="81" t="s">
+    <row r="5" spans="1:25" s="80" customFormat="1" ht="93" thickBot="1">
+      <c r="A5" s="75" t="s">
         <v>401</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="76" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="76" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="81" t="s">
         <v>397</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:25" s="86" customFormat="1" ht="130.19999999999999" thickBot="1">
-      <c r="A6" s="81" t="s">
+    <row r="6" spans="1:25" s="80" customFormat="1" ht="130.19999999999999" thickBot="1">
+      <c r="A6" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="76" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>390</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="76" t="s">
         <v>406</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="76" t="s">
         <v>407</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:25" ht="13.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+    <row r="7" spans="1:25" ht="58.2" thickBot="1">
+      <c r="A7" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>410</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:25" ht="13.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+    <row r="8" spans="1:25" ht="58.2" thickBot="1">
+      <c r="A8" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>413</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:25" ht="13.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+    <row r="9" spans="1:25" ht="58.2" thickBot="1">
+      <c r="A9" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>416</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="13.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+    <row r="10" spans="1:25" ht="87" thickBot="1">
+      <c r="A10" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>419</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:25" ht="13.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+    <row r="11" spans="1:25" ht="58.2" thickBot="1">
+      <c r="A11" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>421</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:25" ht="13.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+    <row r="12" spans="1:25" ht="72.599999999999994" thickBot="1">
+      <c r="A12" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>424</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:25" ht="13.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+    <row r="13" spans="1:25" ht="72.599999999999994" thickBot="1">
+      <c r="A13" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>426</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
@@ -43201,7 +43399,9 @@
       <c r="I25" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/5-Testing/Test Case Report.xlsx
+++ b/5-Testing/Test Case Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohip\Documents\GitHub\Foodies\5-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C02B5B-8BB7-418B-A8DD-B7DFA656DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A5903-2125-49C7-A083-C3ADA0DB6532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="446">
   <si>
     <t>ID</t>
   </si>
@@ -1630,6 +1630,45 @@
   <si>
     <t>TC-HP-12</t>
   </si>
+  <si>
+    <t>TC-HP-13</t>
+  </si>
+  <si>
+    <t>Verifiy that Navigation bar navigate to the “home” page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-click on the "Home" in the navigation bar
+</t>
+  </si>
+  <si>
+    <t>the system redirect user to the home page</t>
+  </si>
+  <si>
+    <t>TC-HP-14</t>
+  </si>
+  <si>
+    <t>Verifiy navigation bar must contain “my account” button and navigate to the “my account” page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-click on the "my Account" in the navigation bar
+</t>
+  </si>
+  <si>
+    <t>the system redirect user to My Account page</t>
+  </si>
+  <si>
+    <t>TC-HP-15</t>
+  </si>
+  <si>
+    <t>Verifiy navigation bar must contain “logout” button to exit the web site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-click on the "logout" in the navigation bar
+</t>
+  </si>
+  <si>
+    <t>the system redirect user to login page</t>
+  </si>
 </sst>
 </file>
 
@@ -2436,6 +2475,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2453,9 +2495,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31955,7 +31994,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>311</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -31973,7 +32012,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A3" s="86"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="66" t="s">
         <v>315</v>
       </c>
@@ -31989,7 +32028,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A4" s="86"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="66" t="s">
         <v>318</v>
       </c>
@@ -32005,7 +32044,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A5" s="87"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="66" t="s">
         <v>321</v>
       </c>
@@ -32029,7 +32068,7 @@
       <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="86" t="s">
         <v>324</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -32047,7 +32086,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A8" s="86"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="66" t="s">
         <v>328</v>
       </c>
@@ -32071,7 +32110,7 @@
       <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="86" t="s">
         <v>331</v>
       </c>
       <c r="B10" s="66"/>
@@ -32081,7 +32120,7 @@
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A11" s="86"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
@@ -32089,7 +32128,7 @@
       <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A12" s="86"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
       <c r="D12" s="67"/>
@@ -32097,7 +32136,7 @@
       <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A13" s="87"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
       <c r="D13" s="67"/>
@@ -32113,7 +32152,7 @@
       <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="86" t="s">
         <v>332</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -32131,7 +32170,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A16" s="86"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="66" t="s">
         <v>336</v>
       </c>
@@ -32147,7 +32186,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A17" s="87"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="66" t="s">
         <v>338</v>
       </c>
@@ -32171,7 +32210,7 @@
       <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="86" t="s">
         <v>216</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -32187,7 +32226,7 @@
       <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A20" s="86"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="66" t="s">
         <v>342</v>
       </c>
@@ -32201,12 +32240,12 @@
       <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" ht="18" thickBot="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="83" t="s">
         <v>344</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
     </row>
@@ -42350,7 +42389,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -42908,8 +42947,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -43195,13 +43234,13 @@
       <c r="A11" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="82" t="s">
         <v>422</v>
       </c>
       <c r="C11" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="82" t="s">
         <v>420</v>
       </c>
       <c r="E11" s="73" t="s">
@@ -43210,7 +43249,7 @@
       <c r="F11" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="82" t="s">
         <v>421</v>
       </c>
       <c r="H11" s="9"/>
@@ -43220,13 +43259,13 @@
       <c r="A12" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="82" t="s">
         <v>423</v>
       </c>
       <c r="C12" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="82" t="s">
         <v>420</v>
       </c>
       <c r="E12" s="73" t="s">
@@ -43251,7 +43290,7 @@
       <c r="C13" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="82" t="s">
         <v>420</v>
       </c>
       <c r="E13" s="73" t="s">
@@ -43266,36 +43305,78 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:25" ht="13.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+    <row r="14" spans="1:25" ht="58.2" thickBot="1">
+      <c r="A14" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>437</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="13.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+    <row r="15" spans="1:25" ht="66.599999999999994" thickBot="1">
+      <c r="A15" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>441</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="13.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+    <row r="16" spans="1:25" ht="58.2" thickBot="1">
+      <c r="A16" s="75" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>445</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>

--- a/5-Testing/Test Case Report.xlsx
+++ b/5-Testing/Test Case Report.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohip\Documents\GitHub\Foodies\5-Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A5903-2125-49C7-A083-C3ADA0DB6532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -26,14 +20,15 @@
     <sheet name="delete offer" sheetId="12" r:id="rId11"/>
     <sheet name="add menu items" sheetId="13" r:id="rId12"/>
     <sheet name="delete menu items" sheetId="14" r:id="rId13"/>
-    <sheet name="test summary" sheetId="16" r:id="rId14"/>
+    <sheet name="add menu item" sheetId="17" r:id="rId14"/>
+    <sheet name="test summary" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="461">
   <si>
     <t>ID</t>
   </si>
@@ -94,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">verify that email field is in correct formate </t>
-  </si>
-  <si>
-    <t>Error message displays "valid Email is required"</t>
   </si>
   <si>
     <t>TC-Reg-04</t>
@@ -1669,12 +1661,95 @@
   <si>
     <t>the system redirect user to login page</t>
   </si>
+  <si>
+    <t>Logged in successfully</t>
+  </si>
+  <si>
+    <t>- log in as admin 
+- Click Add Menu Item 
+- Select Firefest restaurant 
+- Add item name " pasta "
+- Add item photo path 
+- Add price "5" 
+- click Add item</t>
+  </si>
+  <si>
+    <t>The Menue Item has been added successfully</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Verify that Empty Item 
+Name is not accepable</t>
+  </si>
+  <si>
+    <t>- log in as admin 
+- Click Add Menu Item 
+- Select Firefest restaurant 
+- leave item name blank
+- Add item photo path 
+- Add price "5" 
+- click Add item</t>
+  </si>
+  <si>
+    <t>app refuses to add the item menu with 
+an error message "please fill all fields"</t>
+  </si>
+  <si>
+    <t>- log in as admin 
+- Click Add Menu Item 
+- Select Firefest restaurant 
+- fill item name with " $$$ " 
+- Add item photo path 
+- fill price field with "5"
+- click Add item</t>
+  </si>
+  <si>
+    <t>app refuses to add the item menu with 
+an error message "Item name is not valid"</t>
+  </si>
+  <si>
+    <t>Verify that Empty Price field 
+is not acceptable</t>
+  </si>
+  <si>
+    <t>- log in as admin 
+- Click Add Menu Item 
+- Select Firefest restaurant 
+- fill item name with " pasta " 
+- Add item photo path 
+- fill price field with " %%"
+- click Add item</t>
+  </si>
+  <si>
+    <t>Verify that price field doesn't
+accept special characters</t>
+  </si>
+  <si>
+    <t>- log in as admin 
+- Click Add Menu Item 
+- Select Firefest restaurant 
+- fill item name with " pasta " 
+- Add item photo path 
+- leave price field blank
+- click Add item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message displays that there is filed in not unique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">message did not appear as expected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1686,18 +1761,21 @@
       <sz val="12"/>
       <color rgb="FF434343"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1705,47 +1783,56 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1756,18 +1843,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1870,8 +1960,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1950,8 +2064,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2240,11 +2360,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2496,6 +2646,69 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2710,14 +2923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2785,7 +2998,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -2800,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="144">
@@ -2814,13 +3027,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>17</v>
@@ -2829,7 +3042,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="158.4">
@@ -2843,268 +3056,268 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>20</v>
+        <v>458</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>20</v>
+        <v>458</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="144">
       <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="144">
       <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="144">
       <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="144">
       <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="144">
       <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="144">
       <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="144">
       <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="129.6">
       <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="F12" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="144">
       <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
@@ -3113,317 +3326,317 @@
         <v>13</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="144">
       <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="144">
       <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="86.4">
       <c r="A16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>246</v>
+        <v>459</v>
+      </c>
+      <c r="I16" s="109" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="129.6">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="144">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="158.4">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="144">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="129.6">
       <c r="A21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="144">
       <c r="A22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="158.4">
       <c r="A23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="158.4">
       <c r="A24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>12</v>
@@ -3438,7 +3651,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.2">
@@ -3458,7 +3671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3527,31 +3740,31 @@
     </row>
     <row r="2" spans="1:25" ht="115.2">
       <c r="A2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -3572,31 +3785,31 @@
     </row>
     <row r="3" spans="1:25" ht="144">
       <c r="A3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
@@ -3617,31 +3830,31 @@
     </row>
     <row r="4" spans="1:25" ht="187.2">
       <c r="A4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
@@ -3662,31 +3875,31 @@
     </row>
     <row r="5" spans="1:25" ht="187.2">
       <c r="A5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -3707,31 +3920,31 @@
     </row>
     <row r="6" spans="1:25" ht="187.2">
       <c r="A6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -3752,31 +3965,31 @@
     </row>
     <row r="7" spans="1:25" ht="187.2">
       <c r="A7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -3797,31 +4010,31 @@
     </row>
     <row r="8" spans="1:25" ht="187.2">
       <c r="A8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -3842,31 +4055,31 @@
     </row>
     <row r="9" spans="1:25" ht="187.2">
       <c r="A9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -3887,31 +4100,31 @@
     </row>
     <row r="10" spans="1:25" ht="201.6">
       <c r="A10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -30666,7 +30879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30732,31 +30945,31 @@
     </row>
     <row r="2" spans="1:25" ht="115.2">
       <c r="A2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -30777,31 +30990,31 @@
     </row>
     <row r="3" spans="1:25" ht="144">
       <c r="A3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
@@ -30822,31 +31035,31 @@
     </row>
     <row r="4" spans="1:25" ht="144">
       <c r="A4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
@@ -30867,31 +31080,31 @@
     </row>
     <row r="5" spans="1:25" ht="172.8">
       <c r="A5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -31136,7 +31349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31204,150 +31417,150 @@
     </row>
     <row r="2" spans="1:25" ht="55.5" customHeight="1">
       <c r="A2" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="33" t="s">
         <v>217</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>218</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="59.25" customHeight="1">
       <c r="A3" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>220</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>221</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:25" ht="47.25" customHeight="1">
       <c r="A4" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>223</v>
-      </c>
       <c r="C4" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="G4" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1">
       <c r="A5" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>225</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>226</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="56.25" customHeight="1">
       <c r="A6" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>228</v>
-      </c>
       <c r="C6" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="G6" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:25" ht="50.25" customHeight="1">
       <c r="A7" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>230</v>
-      </c>
       <c r="C7" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="G7" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -31556,7 +31769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31623,125 +31836,125 @@
     </row>
     <row r="2" spans="1:25" ht="59.25" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="59.25" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>236</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>237</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:25" ht="54.75" customHeight="1">
       <c r="A4" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>239</v>
-      </c>
       <c r="C4" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>215</v>
-      </c>
       <c r="E4" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="72" customHeight="1">
       <c r="A5" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>241</v>
-      </c>
       <c r="C5" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>215</v>
-      </c>
       <c r="E5" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="66" customHeight="1">
       <c r="A6" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>243</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>244</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -31961,7 +32174,297 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="5" max="9" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="16.2" thickBot="1">
+      <c r="A1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="1:25" ht="109.8" thickBot="1">
+      <c r="A2" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" s="96" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+    </row>
+    <row r="3" spans="1:25" ht="135" thickBot="1">
+      <c r="A3" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+    </row>
+    <row r="4" spans="1:25" ht="135" thickBot="1">
+      <c r="A4" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>453</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+    </row>
+    <row r="5" spans="1:25" ht="135" thickBot="1">
+      <c r="A5" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="105" t="s">
+        <v>453</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+    </row>
+    <row r="6" spans="1:25" ht="135" thickBot="1">
+      <c r="A6" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31975,19 +32478,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="65" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>309</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>310</v>
       </c>
       <c r="F1" s="64" t="s">
         <v>8</v>
@@ -31995,68 +32498,68 @@
     </row>
     <row r="2" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A2" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="66" t="s">
         <v>312</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>313</v>
       </c>
       <c r="D2" s="67"/>
       <c r="E2" s="68">
         <v>23</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A3" s="87"/>
       <c r="B3" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>315</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>316</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="68">
         <v>10</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A4" s="87"/>
       <c r="B4" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>318</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>319</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="68">
         <v>6</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A5" s="88"/>
       <c r="B5" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>321</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>322</v>
       </c>
       <c r="D5" s="67"/>
       <c r="E5" s="68">
         <v>2</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
@@ -32069,36 +32572,36 @@
     </row>
     <row r="7" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A7" s="86" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="C7" s="66" t="s">
         <v>325</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>326</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="68">
         <v>9</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A8" s="87"/>
       <c r="B8" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>328</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>329</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="68">
         <v>4</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
@@ -32111,7 +32614,7 @@
     </row>
     <row r="10" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A10" s="86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
@@ -32153,52 +32656,52 @@
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A15" s="86" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="C15" s="66" t="s">
         <v>333</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>334</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="68">
         <v>4</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A16" s="87"/>
       <c r="B16" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>336</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>337</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="68">
         <v>2</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A17" s="88"/>
       <c r="B17" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="66" t="s">
         <v>338</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>339</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="68">
         <v>2</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
@@ -32211,13 +32714,13 @@
     </row>
     <row r="19" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A19" s="86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>340</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>341</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="68">
@@ -32228,10 +32731,10 @@
     <row r="20" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
       <c r="A20" s="87"/>
       <c r="B20" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>342</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>343</v>
       </c>
       <c r="D20" s="67"/>
       <c r="E20" s="68">
@@ -32241,7 +32744,7 @@
     </row>
     <row r="21" spans="1:6" ht="18" thickBot="1">
       <c r="A21" s="83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="84"/>
       <c r="C21" s="84"/>
@@ -32263,7 +32766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32330,292 +32833,292 @@
     </row>
     <row r="2" spans="1:25" ht="52.8">
       <c r="A2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>73</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="52.8">
       <c r="A3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="E3" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="F3" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="H3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="79.2">
       <c r="A4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="H4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="79.2">
       <c r="A5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="H5" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="66">
       <c r="A6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="H6" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="52.8">
       <c r="A7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="H7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="52.8">
       <c r="A8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="C8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="F8" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="H8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="79.2">
       <c r="A9" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="E9" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>73</v>
-      </c>
       <c r="F9" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="79.2">
       <c r="A10" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="E10" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>73</v>
-      </c>
       <c r="F10" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="66">
       <c r="A11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="E11" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.2">
@@ -41553,7 +42056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41621,31 +42124,31 @@
     </row>
     <row r="2" spans="1:25" ht="145.19999999999999">
       <c r="A2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>95</v>
-      </c>
       <c r="E2" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -41666,147 +42169,147 @@
     </row>
     <row r="3" spans="1:25" ht="52.8">
       <c r="A3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>101</v>
-      </c>
       <c r="H3" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="118.8">
       <c r="A4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="G4" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>106</v>
-      </c>
       <c r="H4" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="118.8">
       <c r="A5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>110</v>
-      </c>
       <c r="H5" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="118.8">
       <c r="A6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>114</v>
-      </c>
       <c r="H6" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="145.19999999999999">
       <c r="A7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>118</v>
-      </c>
       <c r="H7" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.2">
@@ -42013,7 +42516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -42079,60 +42582,60 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.2">
@@ -42383,7 +42886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -42449,400 +42952,400 @@
     </row>
     <row r="2" spans="1:25" ht="115.8" thickBot="1">
       <c r="A2" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="C2" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="D2" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="E2" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>349</v>
-      </c>
       <c r="G2" s="73" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="115.8" thickBot="1">
       <c r="A3" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="C3" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="76" t="s">
+      <c r="E3" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>352</v>
-      </c>
       <c r="G3" s="76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:25" ht="115.8" thickBot="1">
       <c r="A4" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="C4" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="76" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="76" t="s">
+      <c r="E4" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>355</v>
-      </c>
       <c r="G4" s="78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="115.8" thickBot="1">
       <c r="A5" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="C5" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>357</v>
-      </c>
       <c r="G5" s="76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="115.8" thickBot="1">
       <c r="A6" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="C6" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="77" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>359</v>
-      </c>
       <c r="G6" s="76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:25" ht="115.8" thickBot="1">
       <c r="A7" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="C7" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>361</v>
-      </c>
       <c r="G7" s="76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:25" ht="115.8" thickBot="1">
       <c r="A8" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="76" t="s">
         <v>361</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="C8" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="C8" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" s="76" t="s">
+      <c r="E8" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="E8" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>364</v>
-      </c>
       <c r="G8" s="76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:25" ht="115.8" thickBot="1">
       <c r="A9" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="76" t="s">
         <v>364</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="C9" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="77" t="s">
         <v>365</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>366</v>
-      </c>
       <c r="G9" s="76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:25" ht="115.8" thickBot="1">
       <c r="A10" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="C10" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D10" s="76" t="s">
+      <c r="E10" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="77" t="s">
         <v>368</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>369</v>
-      </c>
       <c r="G10" s="78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:25" ht="115.8" thickBot="1">
       <c r="A11" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="79" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="C11" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D11" s="76" t="s">
+      <c r="E11" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="E11" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>372</v>
-      </c>
       <c r="G11" s="79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:25" ht="115.8" thickBot="1">
       <c r="A12" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="79" t="s">
         <v>372</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="C12" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>373</v>
       </c>
-      <c r="C12" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="76" t="s">
+      <c r="E12" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="77" t="s">
         <v>374</v>
       </c>
-      <c r="E12" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>375</v>
-      </c>
       <c r="G12" s="79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:25" ht="115.8" thickBot="1">
       <c r="A13" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="76" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="C13" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="76" t="s">
         <v>376</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D13" s="76" t="s">
+      <c r="E13" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="E13" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>378</v>
-      </c>
       <c r="G13" s="76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="115.8" thickBot="1">
       <c r="A14" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="76" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="C14" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>379</v>
       </c>
-      <c r="C14" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>380</v>
-      </c>
       <c r="G14" s="76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="115.8" thickBot="1">
       <c r="A15" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="C15" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="C15" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D15" s="76" t="s">
+      <c r="E15" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="77" t="s">
         <v>382</v>
       </c>
-      <c r="E15" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>383</v>
-      </c>
       <c r="G15" s="78" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="115.8" thickBot="1">
       <c r="A16" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>383</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="C16" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="77" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>385</v>
-      </c>
       <c r="G16" s="76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="115.8" thickBot="1">
       <c r="A17" s="75" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="C17" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="C17" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>387</v>
-      </c>
       <c r="G17" s="76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -42941,14 +43444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -43007,375 +43510,375 @@
     </row>
     <row r="2" spans="1:25" s="80" customFormat="1" ht="72.599999999999994" thickBot="1">
       <c r="A2" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="C2" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="D2" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="E2" s="73" t="s">
         <v>391</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="F2" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="73" t="s">
         <v>392</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>393</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:25" s="80" customFormat="1" ht="93" thickBot="1">
       <c r="A3" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="C3" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" s="76" t="s">
+      <c r="E3" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="81" t="s">
         <v>396</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>397</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:25" s="80" customFormat="1" ht="72.599999999999994" thickBot="1">
       <c r="A4" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="C4" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>390</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>400</v>
-      </c>
       <c r="E4" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="76" t="s">
         <v>392</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>393</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:25" s="80" customFormat="1" ht="93" thickBot="1">
       <c r="A5" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="C5" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>403</v>
-      </c>
       <c r="E5" s="76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:25" s="80" customFormat="1" ht="130.19999999999999" thickBot="1">
       <c r="A6" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="76" t="s">
         <v>404</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="C6" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="76" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" s="76" t="s">
+      <c r="E6" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="76" t="s">
         <v>406</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>392</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>407</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:25" ht="58.2" thickBot="1">
       <c r="A7" s="75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B7" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D7" s="73" t="s">
+      <c r="E7" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="73" t="s">
         <v>409</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>410</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:25" ht="58.2" thickBot="1">
       <c r="A8" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B8" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="73" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D8" s="73" t="s">
+      <c r="E8" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="73" t="s">
         <v>412</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>413</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:25" ht="58.2" thickBot="1">
       <c r="A9" s="75" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B9" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="73" t="s">
         <v>414</v>
       </c>
-      <c r="C9" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D9" s="73" t="s">
+      <c r="E9" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="73" t="s">
         <v>415</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>416</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:25" ht="87" thickBot="1">
       <c r="A10" s="75" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B10" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="73" t="s">
         <v>417</v>
       </c>
-      <c r="C10" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D10" s="73" t="s">
+      <c r="E10" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="73" t="s">
         <v>418</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>419</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:25" ht="58.2" thickBot="1">
       <c r="A11" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="82" t="s">
         <v>420</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="82" t="s">
-        <v>421</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:25" ht="72.599999999999994" thickBot="1">
       <c r="A12" s="75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B12" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="73" t="s">
         <v>423</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>424</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:25" ht="72.599999999999994" thickBot="1">
       <c r="A13" s="75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="73" t="s">
         <v>425</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>426</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="58.2" thickBot="1">
       <c r="A14" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="C14" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="82" t="s">
         <v>435</v>
       </c>
-      <c r="C14" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D14" s="82" t="s">
+      <c r="E14" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>436</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>437</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="66.599999999999994" thickBot="1">
       <c r="A15" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>438</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="C15" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" s="82" t="s">
         <v>439</v>
       </c>
-      <c r="C15" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="82" t="s">
+      <c r="E15" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>440</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>441</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="58.2" thickBot="1">
       <c r="A16" s="75" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>442</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="C16" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="82" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" s="82" t="s">
+      <c r="E16" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="45" t="s">
         <v>444</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>445</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -43487,13 +43990,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -43555,118 +44058,118 @@
     </row>
     <row r="2" spans="1:25" ht="57" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="60" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>138</v>
-      </c>
       <c r="H3" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="56.25" customHeight="1">
       <c r="A4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>141</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>138</v>
-      </c>
       <c r="H4" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="61.5" customHeight="1">
       <c r="A5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>144</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>138</v>
-      </c>
       <c r="H5" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.2">
@@ -43895,7 +44398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -43961,60 +44464,60 @@
     </row>
     <row r="2" spans="1:25" ht="57" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="H2" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="72">
       <c r="A3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="E3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>154</v>
-      </c>
       <c r="H3" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.2">
@@ -44265,7 +44768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -44331,60 +44834,60 @@
     </row>
     <row r="2" spans="1:25" ht="57" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>159</v>
-      </c>
       <c r="H2" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="72">
       <c r="A3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>162</v>
-      </c>
       <c r="H3" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.2">

--- a/5-Testing/Test Case Report.xlsx
+++ b/5-Testing/Test Case Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -2628,24 +2628,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2708,6 +2690,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2929,8 +2929,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -3418,7 +3418,7 @@
       <c r="H16" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="I16" s="109" t="s">
+      <c r="I16" s="103" t="s">
         <v>460</v>
       </c>
     </row>
@@ -31356,7 +31356,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -32178,7 +32178,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -32189,7 +32189,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.2" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
@@ -32234,229 +32234,229 @@
       <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="109.8" thickBot="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="87" t="s">
         <v>446</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
     </row>
     <row r="3" spans="1:25" ht="135" thickBot="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="93" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="95" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="99" t="s">
         <v>451</v>
       </c>
       <c r="I3" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
     </row>
     <row r="4" spans="1:25" ht="135" thickBot="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="95" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="99" t="s">
         <v>453</v>
       </c>
       <c r="I4" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
     </row>
     <row r="5" spans="1:25" ht="135" thickBot="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="100" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="99" t="s">
         <v>453</v>
       </c>
       <c r="I5" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
     </row>
     <row r="6" spans="1:25" ht="135" thickBot="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="95" t="s">
         <v>457</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="99" t="s">
         <v>451</v>
       </c>
       <c r="I6" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32497,7 +32497,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="107" t="s">
         <v>310</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -32515,7 +32515,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A3" s="87"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="66" t="s">
         <v>314</v>
       </c>
@@ -32531,7 +32531,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A4" s="87"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="66" t="s">
         <v>317</v>
       </c>
@@ -32547,7 +32547,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A5" s="88"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="66" t="s">
         <v>320</v>
       </c>
@@ -32571,7 +32571,7 @@
       <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="107" t="s">
         <v>323</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -32589,7 +32589,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A8" s="87"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="66" t="s">
         <v>327</v>
       </c>
@@ -32613,7 +32613,7 @@
       <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="107" t="s">
         <v>330</v>
       </c>
       <c r="B10" s="66"/>
@@ -32623,7 +32623,7 @@
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A11" s="87"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
@@ -32631,7 +32631,7 @@
       <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A12" s="87"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
       <c r="D12" s="67"/>
@@ -32639,7 +32639,7 @@
       <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
       <c r="D13" s="67"/>
@@ -32655,7 +32655,7 @@
       <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="107" t="s">
         <v>331</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -32673,7 +32673,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A16" s="87"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="66" t="s">
         <v>335</v>
       </c>
@@ -32689,7 +32689,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A17" s="88"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="66" t="s">
         <v>337</v>
       </c>
@@ -32713,7 +32713,7 @@
       <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="107" t="s">
         <v>215</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -32729,7 +32729,7 @@
       <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A20" s="87"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="66" t="s">
         <v>341</v>
       </c>
@@ -32743,12 +32743,12 @@
       <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" ht="18" thickBot="1">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="104" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
     </row>
@@ -43708,7 +43708,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="87" thickBot="1">
+    <row r="10" spans="1:25" ht="101.4" thickBot="1">
       <c r="A10" s="75" t="s">
         <v>429</v>
       </c>
@@ -43758,7 +43758,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:25" ht="72.599999999999994" thickBot="1">
+    <row r="12" spans="1:25" ht="87" thickBot="1">
       <c r="A12" s="75" t="s">
         <v>431</v>
       </c>
@@ -43996,7 +43996,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/5-Testing/Test Case Report.xlsx
+++ b/5-Testing/Test Case Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="add menu item" sheetId="17" r:id="rId14"/>
     <sheet name="test summary" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="464">
   <si>
     <t>ID</t>
   </si>
@@ -1238,9 +1238,6 @@
     <t>sign up</t>
   </si>
   <si>
-    <t>23 passed</t>
-  </si>
-  <si>
     <t>SRS-US-02</t>
   </si>
   <si>
@@ -1287,9 +1284,6 @@
   </si>
   <si>
     <t>4 passed</t>
-  </si>
-  <si>
-    <t>Sohaib</t>
   </si>
   <si>
     <t xml:space="preserve">Menna </t>
@@ -1743,6 +1737,22 @@
   </si>
   <si>
     <t xml:space="preserve">fail </t>
+  </si>
+  <si>
+    <t>120 min</t>
+  </si>
+  <si>
+    <t>22 passed - 1 failed</t>
+  </si>
+  <si>
+    <t>5 passed</t>
+  </si>
+  <si>
+    <t>3 passed</t>
+  </si>
+  <si>
+    <t>68 passed (97%)
+2 failed (3%)</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2302,66 +2312,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -2390,11 +2340,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2580,9 +2631,6 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2591,9 +2639,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2652,7 +2697,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2682,7 +2727,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2691,13 +2736,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2707,6 +2767,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2929,7 +3007,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3065,10 +3143,10 @@
         <v>136</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>245</v>
@@ -3416,10 +3494,10 @@
         <v>54</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>459</v>
-      </c>
-      <c r="I16" s="103" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="I16" s="101" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="129.6">
@@ -32178,7 +32256,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -32189,7 +32267,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.2" thickBot="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
@@ -32234,229 +32312,229 @@
       <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="109.8" thickBot="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="84" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="87" t="s">
         <v>445</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="I2" s="88" t="s">
         <v>446</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+    </row>
+    <row r="3" spans="1:25" ht="135" thickBot="1">
+      <c r="A3" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F3" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" s="90" t="s">
-        <v>448</v>
-      </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-    </row>
-    <row r="3" spans="1:25" ht="135" thickBot="1">
-      <c r="A3" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="93" t="s">
+      <c r="G3" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="94" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" s="95" t="s">
+      <c r="I3" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+    </row>
+    <row r="4" spans="1:25" ht="135" thickBot="1">
+      <c r="A4" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="93" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E4" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F4" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G4" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H4" s="97" t="s">
         <v>451</v>
       </c>
-      <c r="I3" s="68" t="s">
-        <v>448</v>
-      </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-    </row>
-    <row r="4" spans="1:25" ht="135" thickBot="1">
-      <c r="A4" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="95" t="s">
+      <c r="I4" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+    </row>
+    <row r="5" spans="1:25" ht="135" thickBot="1">
+      <c r="A5" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="98" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="C5" s="92" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F5" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G5" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="99" t="s">
-        <v>453</v>
-      </c>
-      <c r="I4" s="68" t="s">
-        <v>448</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-    </row>
-    <row r="5" spans="1:25" ht="135" thickBot="1">
-      <c r="A5" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="100" t="s">
+      <c r="H5" s="97" t="s">
+        <v>451</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+    </row>
+    <row r="6" spans="1:25" ht="135" thickBot="1">
+      <c r="A6" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="100" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="94" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="95" t="s">
+      <c r="C6" s="92" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="93" t="s">
         <v>455</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E6" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F6" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G6" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="99" t="s">
-        <v>453</v>
-      </c>
-      <c r="I5" s="68" t="s">
-        <v>448</v>
-      </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-    </row>
-    <row r="6" spans="1:25" ht="135" thickBot="1">
-      <c r="A6" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>457</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="97" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>451</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>448</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
+      <c r="H6" s="97" t="s">
+        <v>449</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32465,10 +32543,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -32497,7 +32575,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="110" t="s">
         <v>310</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -32506,262 +32584,261 @@
       <c r="C2" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68">
+      <c r="D2" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="67">
         <v>23</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="66" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="66" t="s">
+      <c r="C3" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="102">
+        <v>60</v>
+      </c>
+      <c r="E3" s="67">
+        <v>10</v>
+      </c>
+      <c r="F3" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68">
+    </row>
+    <row r="4" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A4" s="111"/>
+      <c r="B4" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="102">
+        <v>30</v>
+      </c>
+      <c r="E4" s="67">
+        <v>6</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A5" s="112"/>
+      <c r="B5" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="102">
+        <v>20</v>
+      </c>
+      <c r="E5" s="67">
+        <v>2</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A7" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="102">
+        <v>50</v>
+      </c>
+      <c r="E7" s="67">
+        <v>9</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A8" s="111"/>
+      <c r="B8" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="102">
+        <v>20</v>
+      </c>
+      <c r="E8" s="67">
+        <v>4</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A10" s="110" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="102">
+        <v>20</v>
+      </c>
+      <c r="E10" s="67">
+        <v>4</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A11" s="111"/>
+      <c r="B11" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="102">
         <v>10</v>
       </c>
-      <c r="F3" s="68" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68">
-        <v>6</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="66" t="s">
+      <c r="E11" s="67">
+        <v>2</v>
+      </c>
+      <c r="F11" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68">
+    </row>
+    <row r="12" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A12" s="112"/>
+      <c r="B12" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="102">
+        <v>10</v>
+      </c>
+      <c r="E12" s="67">
         <v>2</v>
       </c>
-      <c r="F5" s="68" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-    </row>
-    <row r="7" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A7" s="107" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68">
-        <v>9</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A8" s="108"/>
-      <c r="B8" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68">
-        <v>4</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-    </row>
-    <row r="10" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A10" s="107" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-    </row>
-    <row r="11" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-    </row>
-    <row r="12" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A12" s="108"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="F12" s="67" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A13" s="109"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="A14" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="102">
+        <v>30</v>
+      </c>
+      <c r="E14" s="67">
+        <v>5</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A15" s="107" t="s">
-        <v>331</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68">
-        <v>4</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A16" s="108"/>
-      <c r="B16" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68">
-        <v>2</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A17" s="109"/>
-      <c r="B17" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68">
-        <v>2</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-    </row>
-    <row r="19" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A19" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="66" t="s">
+      <c r="A15" s="111"/>
+      <c r="B15" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C15" s="104" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68">
-        <v>6</v>
-      </c>
-      <c r="F19" s="68"/>
-    </row>
-    <row r="20" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="66" t="s">
+      <c r="D15" s="105">
+        <v>20</v>
+      </c>
+      <c r="E15" s="103">
+        <v>3</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="113" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68">
-        <v>5</v>
-      </c>
-      <c r="F20" s="68"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1">
-      <c r="A21" s="104" t="s">
-        <v>343</v>
-      </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="106">
+        <f>SUM(E2:E5,E7:E8,E10:E12,E14:E15)</f>
+        <v>70</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" thickBot="1">
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A21:D21"/>
+  <mergeCells count="7">
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42951,401 +43028,401 @@
       <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="E2" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="73" t="s">
-        <v>347</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>345</v>
+      <c r="G2" s="71" t="s">
+        <v>343</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="E3" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>349</v>
+      <c r="G3" s="74" t="s">
+        <v>347</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="73" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="E4" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>354</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>352</v>
+      <c r="G4" s="76" t="s">
+        <v>350</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="76" t="s">
+      <c r="G5" s="74" t="s">
         <v>353</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>356</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>355</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>353</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>358</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>357</v>
+      <c r="G6" s="74" t="s">
+        <v>355</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="75" t="s">
         <v>358</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>359</v>
+      <c r="G7" s="74" t="s">
+        <v>357</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="74" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="E8" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>362</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>363</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>361</v>
+      <c r="G8" s="74" t="s">
+        <v>359</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="B9" s="76" t="s">
-        <v>364</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D9" s="76" t="s">
+      <c r="G9" s="74" t="s">
         <v>362</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>365</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>364</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="E10" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="78" t="s">
-        <v>366</v>
+      <c r="G10" s="76" t="s">
+        <v>364</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="E11" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>371</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>369</v>
+      <c r="G11" s="77" t="s">
+        <v>367</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="E12" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="C12" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>373</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>374</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>372</v>
+      <c r="G12" s="77" t="s">
+        <v>370</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="E13" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>375</v>
+      <c r="G13" s="74" t="s">
+        <v>373</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="76" t="s">
-        <v>378</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="76" t="s">
+      <c r="G14" s="74" t="s">
         <v>376</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>379</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>378</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="E15" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="C15" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>380</v>
+      <c r="G15" s="76" t="s">
+        <v>378</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="B16" s="76" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="76" t="s">
+      <c r="G16" s="74" t="s">
         <v>381</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>384</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>383</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="115.8" thickBot="1">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>385</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>386</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>385</v>
+      <c r="G17" s="74" t="s">
+        <v>383</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -43508,377 +43585,377 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="80" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:25" s="78" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A2" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="F2" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="71" t="s">
         <v>390</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>392</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:25" s="80" customFormat="1" ht="93" thickBot="1">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:25" s="78" customFormat="1" ht="93" thickBot="1">
+      <c r="A3" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="E3" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="79" t="s">
         <v>394</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>395</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>396</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:25" s="80" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:25" s="78" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A4" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="74" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="C4" s="76" t="s">
+      <c r="E4" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="76" t="s">
-        <v>399</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="76" t="s">
-        <v>392</v>
+      <c r="G4" s="74" t="s">
+        <v>390</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:25" s="80" customFormat="1" ht="93" thickBot="1">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:25" s="78" customFormat="1" ht="93" thickBot="1">
+      <c r="A5" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="76" t="s">
+      <c r="E5" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="81" t="s">
-        <v>396</v>
+      <c r="G5" s="79" t="s">
+        <v>394</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:25" s="80" customFormat="1" ht="130.19999999999999" thickBot="1">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:25" s="78" customFormat="1" ht="130.19999999999999" thickBot="1">
+      <c r="A6" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="E6" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="74" t="s">
         <v>404</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>405</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>406</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A7" s="75" t="s">
-        <v>426</v>
-      </c>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="71" t="s">
         <v>407</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>408</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>409</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A8" s="75" t="s">
-        <v>427</v>
-      </c>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="71" t="s">
         <v>410</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>412</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A9" s="75" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="71" t="s">
         <v>413</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>414</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>415</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="101.4" thickBot="1">
-      <c r="A10" s="75" t="s">
-        <v>429</v>
-      </c>
-      <c r="B10" s="73" t="s">
+    <row r="10" spans="1:25" ht="87" thickBot="1">
+      <c r="A10" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="71" t="s">
         <v>416</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>417</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>418</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A11" s="75" t="s">
-        <v>430</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="C11" s="73" t="s">
+      <c r="A11" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="82" t="s">
-        <v>420</v>
+      <c r="G11" s="80" t="s">
+        <v>418</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:25" ht="87" thickBot="1">
-      <c r="A12" s="75" t="s">
-        <v>431</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" s="73" t="s">
+    <row r="12" spans="1:25" ht="72.599999999999994" thickBot="1">
+      <c r="A12" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="D12" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="73" t="s">
-        <v>423</v>
+      <c r="G12" s="71" t="s">
+        <v>421</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:25" ht="72.599999999999994" thickBot="1">
-      <c r="A13" s="75" t="s">
-        <v>432</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>424</v>
-      </c>
-      <c r="C13" s="73" t="s">
+      <c r="A13" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="D13" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="73" t="s">
-        <v>425</v>
+      <c r="G13" s="71" t="s">
+        <v>423</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="E14" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>434</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>435</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>436</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="66.599999999999994" thickBot="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="E15" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>438</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>439</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>440</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="73" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="E16" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="45" t="s">
         <v>442</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>443</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>444</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>

--- a/5-Testing/Test Case Report.xlsx
+++ b/5-Testing/Test Case Report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohip\Documents\GitHub\Foodies\5-Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA370C95-6B83-4A6C-884E-C6B7406A1F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -21,14 +27,15 @@
     <sheet name="add menu items" sheetId="13" r:id="rId12"/>
     <sheet name="delete menu items" sheetId="14" r:id="rId13"/>
     <sheet name="add menu item" sheetId="17" r:id="rId14"/>
-    <sheet name="test summary" sheetId="16" r:id="rId15"/>
+    <sheet name="confirmation page" sheetId="18" r:id="rId15"/>
+    <sheet name="test summary" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="492">
   <si>
     <t>ID</t>
   </si>
@@ -1460,9 +1467,6 @@
     <t>verify that Telephone Number with characters are not allowed</t>
   </si>
   <si>
-    <t>TC-MyACC-17</t>
-  </si>
-  <si>
     <t>TC-HP-1</t>
   </si>
   <si>
@@ -1754,12 +1758,134 @@
     <t>68 passed (97%)
 2 failed (3%)</t>
   </si>
+  <si>
+    <t>TC-CP-01</t>
+  </si>
+  <si>
+    <t>Verfity that each ordered item must have its name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- go to home page 
+2-login with a vlaid account
+customer@customer.com:P@ssw0rd
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-in search box enter "Mac"
+2-choose the Mac to navigate to Mac Page
+3-choose "Big Mac" 
+4-click add to cart
+5-click the cart icon
+</t>
+  </si>
+  <si>
+    <t>the cart page contain the "Big Mac" name</t>
+  </si>
+  <si>
+    <t>TC-CP-02</t>
+  </si>
+  <si>
+    <t>Verfity that each ordered item must  have its ordered quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-in search box enter "Mac"
+2-choose the Mac to navigate to Mac Page
+3-choose "Big Mac" 
+4- click "+" twice
+5-click add to cart
+6-click the cart icon
+</t>
+  </si>
+  <si>
+    <t>the cart page contain the "Big Mac" name with "qat =2"</t>
+  </si>
+  <si>
+    <t>TC-CP-03</t>
+  </si>
+  <si>
+    <t>Verfity that each ordered item must  have its unit price</t>
+  </si>
+  <si>
+    <t>the cart page contain the "Big Mac" name with "qat =2" and "unite price = 120"</t>
+  </si>
+  <si>
+    <t>TC-CP-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfity that each ordered item must  have its total price </t>
+  </si>
+  <si>
+    <t>the cart page contain the "Big Mac" name with "qat =2" and "unite price = 120" and "totoal price=240"</t>
+  </si>
+  <si>
+    <t>TC-CP-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfity that each ordered item must  have The total price of the order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-in search box enter "Mac"
+2-choose the Mac to navigate to Mac Page
+3-choose "Big Mac" 
+4- click "+" twice
+5-click add to cart
+6-choose "Share Box" 
+7- click "+" twice
+8-click add to cart
+9-click the cart icon
+</t>
+  </si>
+  <si>
+    <t>TC-CP-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfity that each ordered item must  have The order delivery address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the cart page contain the address consisting of the city and area which the user  choose in home page </t>
+  </si>
+  <si>
+    <t>TC-CP-07</t>
+  </si>
+  <si>
+    <t>Verfity that each ordered item must  have The order delivery address is adjustable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-in search box enter "Mac"
+2-choose the Mac to navigate to Mac Page
+3-choose "Big Mac" 
+4-click add to cart
+5-click the cart icon
+6-in the address box enter"5-A haram" 
+</t>
+  </si>
+  <si>
+    <t>the cart page contain the address box contain the new address</t>
+  </si>
+  <si>
+    <t>TC-CP-08</t>
+  </si>
+  <si>
+    <t>Verfity that each ordered button is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-in search box enter "Mac"
+2-choose the Mac to navigate to Mac Page
+3-choose "Big Mac" 
+4-click add to cart
+5-click the cart icon
+6-click Confirm order button 
+</t>
+  </si>
+  <si>
+    <t>system redirect the user to the thank you page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1993,6 +2119,25 @@
       <sz val="15"/>
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2445,7 +2590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2646,16 +2791,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2785,6 +2924,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3001,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3143,10 +3306,10 @@
         <v>136</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>245</v>
@@ -3494,10 +3657,10 @@
         <v>54</v>
       </c>
       <c r="H16" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="I16" s="99" t="s">
         <v>457</v>
-      </c>
-      <c r="I16" s="101" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="129.6">
@@ -3749,7 +3912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30957,7 +31120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31427,7 +31590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31847,7 +32010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32252,7 +32415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32267,7 +32430,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.2" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
@@ -32312,229 +32475,229 @@
       <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="109.8" thickBot="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="82" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>443</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="E2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="85" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="I2" s="86" t="s">
+        <v>445</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+    </row>
+    <row r="3" spans="1:25" ht="151.80000000000001" thickBot="1">
+      <c r="A3" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F3" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="87" t="s">
+      <c r="G3" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>448</v>
+      </c>
+      <c r="I3" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>446</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-    </row>
-    <row r="3" spans="1:25" ht="135" thickBot="1">
-      <c r="A3" s="90" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>447</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>443</v>
-      </c>
-      <c r="D3" s="93" t="s">
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+    </row>
+    <row r="4" spans="1:25" ht="151.80000000000001" thickBot="1">
+      <c r="A4" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+    </row>
+    <row r="5" spans="1:25" ht="151.80000000000001" thickBot="1">
+      <c r="A5" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>445</v>
+      </c>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+    </row>
+    <row r="6" spans="1:25" ht="151.80000000000001" thickBot="1">
+      <c r="A6" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="95" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="97" t="s">
-        <v>449</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-    </row>
-    <row r="4" spans="1:25" ht="135" thickBot="1">
-      <c r="A4" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>443</v>
-      </c>
-      <c r="D4" s="93" t="s">
-        <v>450</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="99" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" s="97" t="s">
-        <v>451</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-    </row>
-    <row r="5" spans="1:25" ht="135" thickBot="1">
-      <c r="A5" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>443</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>453</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>451</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-    </row>
-    <row r="6" spans="1:25" ht="135" thickBot="1">
-      <c r="A6" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="100" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>455</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>449</v>
-      </c>
       <c r="I6" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
+        <v>445</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32542,10 +32705,257 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E06908E-28E4-461F-8514-26D772054E62}">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="9" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="124" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+    </row>
+    <row r="2" spans="1:25" s="124" customFormat="1" ht="106.2" customHeight="1">
+      <c r="A2" s="124" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="124" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="124" customFormat="1" ht="118.8">
+      <c r="A3" s="124" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="124" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="124" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="124" customFormat="1" ht="118.8">
+      <c r="A4" s="124" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" s="124" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="124" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="124" customFormat="1" ht="118.8">
+      <c r="A5" s="124" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="124" customFormat="1" ht="158.4">
+      <c r="A6" s="124" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="124" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="124" customFormat="1" ht="106.2" customHeight="1">
+      <c r="A7" s="124" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="124" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="124" customFormat="1" ht="118.8">
+      <c r="A8" s="124" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>486</v>
+      </c>
+      <c r="E8" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="124" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="124" customFormat="1" ht="118.8">
+      <c r="A9" s="124" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="124" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -32575,7 +32985,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="108" t="s">
         <v>310</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -32584,25 +32994,25 @@
       <c r="C2" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="102" t="s">
-        <v>459</v>
+      <c r="D2" s="100" t="s">
+        <v>458</v>
       </c>
       <c r="E2" s="67">
         <v>23</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A3" s="111"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="66" t="s">
         <v>313</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="102">
+      <c r="D3" s="100">
         <v>60</v>
       </c>
       <c r="E3" s="67">
@@ -32613,14 +33023,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A4" s="111"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="66" t="s">
         <v>316</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="102">
+      <c r="D4" s="100">
         <v>30</v>
       </c>
       <c r="E4" s="67">
@@ -32631,14 +33041,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A5" s="112"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="66" t="s">
         <v>319</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="100">
         <v>20</v>
       </c>
       <c r="E5" s="67">
@@ -32657,7 +33067,7 @@
       <c r="F6" s="69"/>
     </row>
     <row r="7" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="108" t="s">
         <v>322</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -32666,7 +33076,7 @@
       <c r="C7" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="100">
         <v>50</v>
       </c>
       <c r="E7" s="67">
@@ -32677,14 +33087,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="66" t="s">
         <v>326</v>
       </c>
       <c r="C8" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="100">
         <v>20</v>
       </c>
       <c r="E8" s="67">
@@ -32703,7 +33113,7 @@
       <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="108" t="s">
         <v>329</v>
       </c>
       <c r="B10" s="66" t="s">
@@ -32712,7 +33122,7 @@
       <c r="C10" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="102">
+      <c r="D10" s="100">
         <v>20</v>
       </c>
       <c r="E10" s="67">
@@ -32723,14 +33133,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="66" t="s">
         <v>333</v>
       </c>
       <c r="C11" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="100">
         <v>10</v>
       </c>
       <c r="E11" s="67">
@@ -32741,14 +33151,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A12" s="112"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="66" t="s">
         <v>335</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="100">
         <v>10</v>
       </c>
       <c r="E12" s="67">
@@ -32767,7 +33177,7 @@
       <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="108" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="66" t="s">
@@ -32776,56 +33186,56 @@
       <c r="C14" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="100">
         <v>30</v>
       </c>
       <c r="E14" s="67">
         <v>5</v>
       </c>
       <c r="F14" s="67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
+      <c r="A15" s="109"/>
+      <c r="B15" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="103">
+        <v>20</v>
+      </c>
+      <c r="E15" s="101">
+        <v>3</v>
+      </c>
+      <c r="F15" s="101" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="58.8" customHeight="1" thickBot="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="104" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" s="105">
-        <v>20</v>
-      </c>
-      <c r="E15" s="103">
-        <v>3</v>
-      </c>
-      <c r="F15" s="103" t="s">
-        <v>462</v>
-      </c>
-    </row>
     <row r="16" spans="1:6" ht="18" customHeight="1">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="111" t="s">
         <v>341</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="106">
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="104">
         <f>SUM(E2:E5,E7:E8,E10:E12,E14:E15)</f>
         <v>70</v>
       </c>
-      <c r="F16" s="108" t="s">
-        <v>463</v>
+      <c r="F16" s="106" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" thickBot="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="109"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -32843,7 +33253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -42133,7 +42543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -42593,7 +43003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -42963,14 +43373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -43043,385 +43453,385 @@
       <c r="E2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="72" t="s">
-        <v>346</v>
-      </c>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="117" t="s">
         <v>343</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="73" t="s">
         <v>348</v>
       </c>
       <c r="E3" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" s="74" t="s">
+      <c r="F3" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="118" t="s">
         <v>347</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>351</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" s="76" t="s">
+      <c r="F4" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="74" t="s">
         <v>350</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="73" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>351</v>
       </c>
       <c r="E5" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="G5" s="74" t="s">
+      <c r="F5" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="118" t="s">
         <v>353</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>351</v>
       </c>
       <c r="E6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="G6" s="74" t="s">
+      <c r="F6" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="118" t="s">
         <v>355</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>351</v>
       </c>
       <c r="E7" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="74" t="s">
+      <c r="F7" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="118" t="s">
         <v>357</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>360</v>
       </c>
       <c r="E8" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" s="74" t="s">
+      <c r="F8" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="118" t="s">
         <v>359</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="75" t="s">
-        <v>363</v>
-      </c>
-      <c r="G9" s="74" t="s">
+      <c r="F9" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="118" t="s">
         <v>362</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="74" t="s">
         <v>364</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>365</v>
       </c>
       <c r="E10" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="G10" s="76" t="s">
+      <c r="F10" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="74" t="s">
         <v>364</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="73" t="s">
         <v>368</v>
       </c>
       <c r="E11" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="75" t="s">
-        <v>369</v>
-      </c>
-      <c r="G11" s="77" t="s">
+      <c r="F11" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="119" t="s">
         <v>367</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="73" t="s">
         <v>371</v>
       </c>
       <c r="E12" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="G12" s="77" t="s">
+      <c r="F12" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="119" t="s">
         <v>370</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="73" t="s">
         <v>374</v>
       </c>
       <c r="E13" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="G13" s="74" t="s">
+      <c r="F13" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="118" t="s">
         <v>373</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>376</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="73" t="s">
         <v>374</v>
       </c>
       <c r="E14" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="75" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="74" t="s">
+      <c r="F14" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="118" t="s">
         <v>376</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="73" t="s">
         <v>379</v>
       </c>
       <c r="E15" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="75" t="s">
-        <v>380</v>
-      </c>
-      <c r="G15" s="76" t="s">
+      <c r="F15" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="74" t="s">
         <v>378</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="115.8" thickBot="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="73" t="s">
         <v>379</v>
       </c>
       <c r="E16" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="G16" s="74" t="s">
+      <c r="F16" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="118" t="s">
         <v>381</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="115.8" thickBot="1">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>379</v>
       </c>
       <c r="E17" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="75" t="s">
-        <v>384</v>
-      </c>
-      <c r="G17" s="74" t="s">
+      <c r="F17" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="118" t="s">
         <v>383</v>
       </c>
       <c r="H17" s="9"/>
@@ -43521,7 +43931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -43585,377 +43995,377 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="78" customFormat="1" ht="72.599999999999994" thickBot="1">
+    <row r="2" spans="1:25" s="76" customFormat="1" ht="72.599999999999994" thickBot="1">
       <c r="A2" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="C2" s="71" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="D2" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="E2" s="71" t="s">
         <v>388</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>389</v>
       </c>
       <c r="F2" s="71" t="s">
         <v>136</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:25" s="78" customFormat="1" ht="93" thickBot="1">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:25" s="76" customFormat="1" ht="93" thickBot="1">
+      <c r="A3" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="C3" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="74" t="s">
+      <c r="E3" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="77" t="s">
         <v>393</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>394</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:25" s="78" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:25" s="76" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A4" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="C4" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="73" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="73" t="s">
         <v>389</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>390</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:25" s="78" customFormat="1" ht="93" thickBot="1">
-      <c r="A5" s="73" t="s">
+    <row r="5" spans="1:25" s="76" customFormat="1" ht="93" thickBot="1">
+      <c r="A5" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="C5" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>400</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="79" t="s">
-        <v>394</v>
+      <c r="G5" s="77" t="s">
+        <v>393</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:25" s="78" customFormat="1" ht="130.19999999999999" thickBot="1">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:25" s="76" customFormat="1" ht="130.19999999999999" thickBot="1">
+      <c r="A6" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="C6" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="73" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="74" t="s">
+      <c r="E6" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="73" t="s">
         <v>403</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>404</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A7" s="73" t="s">
-        <v>424</v>
+      <c r="A7" s="72" t="s">
+        <v>423</v>
       </c>
       <c r="B7" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>406</v>
-      </c>
       <c r="E7" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F7" s="71" t="s">
         <v>136</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A8" s="73" t="s">
-        <v>425</v>
+      <c r="A8" s="72" t="s">
+        <v>424</v>
       </c>
       <c r="B8" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>409</v>
-      </c>
       <c r="E8" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F8" s="71" t="s">
         <v>104</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A9" s="73" t="s">
-        <v>426</v>
+      <c r="A9" s="72" t="s">
+        <v>425</v>
       </c>
       <c r="B9" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="C9" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>412</v>
-      </c>
       <c r="E9" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F9" s="71" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="87" thickBot="1">
-      <c r="A10" s="73" t="s">
-        <v>427</v>
+    <row r="10" spans="1:25" ht="101.4" thickBot="1">
+      <c r="A10" s="72" t="s">
+        <v>426</v>
       </c>
       <c r="B10" s="71" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="71" t="s">
         <v>414</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>415</v>
-      </c>
       <c r="E10" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A11" s="73" t="s">
-        <v>428</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>419</v>
+    <row r="11" spans="1:25" ht="66.599999999999994" thickBot="1">
+      <c r="A11" s="72" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>418</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>417</v>
+        <v>386</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>416</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="80" t="s">
-        <v>418</v>
+      <c r="G11" s="78" t="s">
+        <v>417</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:25" ht="72.599999999999994" thickBot="1">
-      <c r="A12" s="73" t="s">
-        <v>429</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>420</v>
+    <row r="12" spans="1:25" ht="87" thickBot="1">
+      <c r="A12" s="72" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>419</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>417</v>
+        <v>386</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>416</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>104</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:25" ht="72.599999999999994" thickBot="1">
-      <c r="A13" s="73" t="s">
-        <v>430</v>
+      <c r="A13" s="72" t="s">
+        <v>429</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>417</v>
+        <v>386</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>416</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F13" s="71" t="s">
         <v>136</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="C14" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="78" t="s">
         <v>432</v>
       </c>
-      <c r="C14" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>433</v>
-      </c>
       <c r="E14" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F14" s="71" t="s">
         <v>136</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="66.599999999999994" thickBot="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="C15" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>437</v>
-      </c>
       <c r="E15" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F15" s="71" t="s">
         <v>136</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="58.2" thickBot="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="72" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="C16" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="78" t="s">
         <v>440</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>441</v>
-      </c>
       <c r="E16" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F16" s="71" t="s">
         <v>136</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -44067,7 +44477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -44475,7 +44885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -44568,7 +44978,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="72">
+    <row r="3" spans="1:25" ht="57.6">
       <c r="A3" s="13" t="s">
         <v>149</v>
       </c>
@@ -44845,7 +45255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -44938,7 +45348,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="72">
+    <row r="3" spans="1:25" ht="57.6">
       <c r="A3" s="13" t="s">
         <v>159</v>
       </c>
